--- a/untranslated/downloads/data-excel/3.2.2.xlsx
+++ b/untranslated/downloads/data-excel/3.2.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23136" windowHeight="9456"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23130" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>Кыргызская Республика</t>
   </si>
@@ -131,6 +131,24 @@
   </si>
   <si>
     <t>3.2.2 Neonatal mortality rate per 1000 live births</t>
+  </si>
+  <si>
+    <t>эркектер</t>
+  </si>
+  <si>
+    <t>мужчины</t>
+  </si>
+  <si>
+    <t> men</t>
+  </si>
+  <si>
+    <t>аялдар</t>
+  </si>
+  <si>
+    <t>женщины</t>
+  </si>
+  <si>
+    <t> women</t>
   </si>
 </sst>
 </file>
@@ -285,7 +303,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -353,9 +371,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -365,41 +380,23 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -464,7 +461,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,7 +496,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,20 +708,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.88671875" customWidth="1"/>
-    <col min="2" max="3" width="36.77734375" customWidth="1"/>
-    <col min="4" max="17" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -745,8 +740,9 @@
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q1"/>
+    </row>
+    <row r="2" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -768,7 +764,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -784,57 +780,60 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>2007</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>2008</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="23">
         <v>2009</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="23">
         <v>2010</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <v>2011</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>2012</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="24">
         <v>2013</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="24">
         <v>2014</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <v>2015</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <v>2016</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="24">
         <v>2017</v>
       </c>
-      <c r="O4" s="25">
+      <c r="O4" s="24">
         <v>2018</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q4" s="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -844,494 +843,1464 @@
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>21.06270943034945</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>19.63371344202557</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>18.141024694820437</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>16.397144871101741</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="25">
         <v>15.346362591235996</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>14.627093042771016</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>14.891975308641975</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>15.641512115837417</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>13.997993294667548</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="25">
         <v>12.67071320182094</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="25">
         <v>11.795339148548367</v>
       </c>
-      <c r="O5" s="34">
-        <v>12</v>
-      </c>
-      <c r="P5" s="35">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="O5" s="25">
+        <v>11.989552962623211</v>
+      </c>
+      <c r="P5" s="25">
+        <v>11.793594798367574</v>
+      </c>
+      <c r="Q5" s="25">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25">
+        <v>18.289259071098158</v>
+      </c>
+      <c r="H6" s="25">
+        <v>16.768074212082915</v>
+      </c>
+      <c r="I6" s="25">
+        <v>16.123559498824978</v>
+      </c>
+      <c r="J6" s="25">
+        <v>16.540713677994095</v>
+      </c>
+      <c r="K6" s="25">
+        <v>16.894648428125748</v>
+      </c>
+      <c r="L6" s="25">
+        <v>15.428233904311874</v>
+      </c>
+      <c r="M6" s="25">
+        <v>13.418192114042323</v>
+      </c>
+      <c r="N6" s="25">
+        <v>13.094077272784833</v>
+      </c>
+      <c r="O6" s="25">
+        <v>13.215508319401323</v>
+      </c>
+      <c r="P6" s="25">
+        <v>12.876696896299217</v>
+      </c>
+      <c r="Q6" s="25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25">
+        <v>14.412898703119524</v>
+      </c>
+      <c r="H7" s="25">
+        <v>13.848666602616012</v>
+      </c>
+      <c r="I7" s="25">
+        <v>13.046652067157742</v>
+      </c>
+      <c r="J7" s="25">
+        <v>13.148843854172178</v>
+      </c>
+      <c r="K7" s="25">
+        <v>14.310654620060403</v>
+      </c>
+      <c r="L7" s="25">
+        <v>12.46161264942514</v>
+      </c>
+      <c r="M7" s="25">
+        <v>11.881394048903505</v>
+      </c>
+      <c r="N7" s="25">
+        <v>10.421550373059354</v>
+      </c>
+      <c r="O7" s="25">
+        <v>10.694287568191104</v>
+      </c>
+      <c r="P7" s="25">
+        <v>10.6587660383149</v>
+      </c>
+      <c r="Q7" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D8" s="26">
         <v>20.020581906632987</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E8" s="26">
         <v>20.371251784864352</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F8" s="26">
         <v>17.75295882647108</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G8" s="26">
         <v>17.905102954341988</v>
       </c>
-      <c r="H6" s="28">
+      <c r="H8" s="26">
         <v>15.91196371477433</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I8" s="26">
         <v>13.333333333333334</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J8" s="26">
         <v>13.292290471526513</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K8" s="26">
         <v>12.498301861160169</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L8" s="26">
         <v>11.21983039791259</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M8" s="26">
         <v>10.610820244328098</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N8" s="26">
         <v>10.611457405758385</v>
       </c>
-      <c r="O6" s="33">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="P6" s="36">
+      <c r="O8" s="26">
+        <v>9.3401424539712394</v>
+      </c>
+      <c r="P8" s="26">
+        <v>10.465116279069766</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26">
+        <v>19.501466275659823</v>
+      </c>
+      <c r="H9" s="26">
+        <v>16.975974679902173</v>
+      </c>
+      <c r="I9" s="26">
+        <v>15.115129255544568</v>
+      </c>
+      <c r="J9" s="26">
+        <v>15.365952284674485</v>
+      </c>
+      <c r="K9" s="26">
+        <v>14.723281188379124</v>
+      </c>
+      <c r="L9" s="26">
+        <v>12.076990816454899</v>
+      </c>
+      <c r="M9" s="26">
+        <v>10.41095890410959</v>
+      </c>
+      <c r="N9" s="26">
+        <v>11.745939675174014</v>
+      </c>
+      <c r="O9" s="26">
+        <v>10.395010395010395</v>
+      </c>
+      <c r="P9" s="26">
+        <v>10.332950631458095</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26">
+        <v>16.251518833535844</v>
+      </c>
+      <c r="H10" s="26">
+        <v>14.773776546629731</v>
+      </c>
+      <c r="I10" s="26">
+        <v>11.456628477905074</v>
+      </c>
+      <c r="J10" s="26">
+        <v>11.054545454545455</v>
+      </c>
+      <c r="K10" s="26">
+        <v>10.119465917076598</v>
+      </c>
+      <c r="L10" s="26">
+        <v>10.296707763175721</v>
+      </c>
+      <c r="M10" s="26">
+        <v>10.818505338078293</v>
+      </c>
+      <c r="N10" s="26">
+        <v>9.4224924012158056</v>
+      </c>
+      <c r="O10" s="26">
+        <v>8.2104091288616754</v>
+      </c>
+      <c r="P10" s="26">
+        <v>10.600706713780919</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="26">
+        <v>17.491993101749202</v>
+      </c>
+      <c r="E11" s="26">
+        <v>13.82849531868218</v>
+      </c>
+      <c r="F11" s="26">
+        <v>13.109231388919405</v>
+      </c>
+      <c r="G11" s="26">
+        <v>11.416709911779968</v>
+      </c>
+      <c r="H11" s="26">
+        <v>11.646040014599025</v>
+      </c>
+      <c r="I11" s="26">
+        <v>11.539978958442925</v>
+      </c>
+      <c r="J11" s="26">
+        <v>13.183481098183975</v>
+      </c>
+      <c r="K11" s="26">
+        <v>14.415325767394808</v>
+      </c>
+      <c r="L11" s="26">
+        <v>12.659814489847079</v>
+      </c>
+      <c r="M11" s="26">
+        <v>11.493097440021446</v>
+      </c>
+      <c r="N11" s="26">
+        <v>9.9185738699192445</v>
+      </c>
+      <c r="O11" s="26">
+        <v>10.180383673209684</v>
+      </c>
+      <c r="P11" s="26">
+        <v>9.5190846795448198</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26">
+        <v>12.663343661592348</v>
+      </c>
+      <c r="H12" s="26">
+        <v>13.039247486214725</v>
+      </c>
+      <c r="I12" s="26">
+        <v>13.211903540277065</v>
+      </c>
+      <c r="J12" s="26">
+        <v>13.028055465978715</v>
+      </c>
+      <c r="K12" s="26">
+        <v>15.585048094484353</v>
+      </c>
+      <c r="L12" s="26">
+        <v>13.350171387335378</v>
+      </c>
+      <c r="M12" s="26">
+        <v>11.935820506130968</v>
+      </c>
+      <c r="N12" s="26">
+        <v>10.467459853065471</v>
+      </c>
+      <c r="O12" s="26">
+        <v>10.48777460593273</v>
+      </c>
+      <c r="P12" s="26">
+        <v>9.9217353793060941</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26">
+        <v>10.10029162813856</v>
+      </c>
+      <c r="H13" s="26">
+        <v>10.187449062754686</v>
+      </c>
+      <c r="I13" s="26">
+        <v>9.78143550998381</v>
+      </c>
+      <c r="J13" s="26">
+        <v>13.34591534106228</v>
+      </c>
+      <c r="K13" s="26">
+        <v>13.151837969356219</v>
+      </c>
+      <c r="L13" s="26">
+        <v>11.908656677353923</v>
+      </c>
+      <c r="M13" s="26">
+        <v>11.025358324145534</v>
+      </c>
+      <c r="N13" s="26">
+        <v>9.3348084635596731</v>
+      </c>
+      <c r="O13" s="26">
+        <v>9.8570402767804701</v>
+      </c>
+      <c r="P13" s="26">
+        <v>9.1113330004992505</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="26">
+        <v>17.433751743375176</v>
+      </c>
+      <c r="E14" s="26">
+        <v>18.441460185360317</v>
+      </c>
+      <c r="F14" s="26">
+        <v>16.389013957676724</v>
+      </c>
+      <c r="G14" s="26">
+        <v>15.933098591549296</v>
+      </c>
+      <c r="H14" s="26">
+        <v>16.267429388630678</v>
+      </c>
+      <c r="I14" s="26">
+        <v>14.752650176678445</v>
+      </c>
+      <c r="J14" s="26">
+        <v>11.26105165193113</v>
+      </c>
+      <c r="K14" s="26">
+        <v>9.3061826223164097</v>
+      </c>
+      <c r="L14" s="26">
+        <v>12.182109194380224</v>
+      </c>
+      <c r="M14" s="26">
+        <v>8.4201388888888893</v>
+      </c>
+      <c r="N14" s="26">
+        <v>9.4235033259423506</v>
+      </c>
+      <c r="O14" s="26">
+        <v>8.4504536559331083</v>
+      </c>
+      <c r="P14" s="26">
+        <v>11.651037226484798</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26">
+        <v>19.34369602763385</v>
+      </c>
+      <c r="H15" s="26">
+        <v>19.604380077711056</v>
+      </c>
+      <c r="I15" s="26">
+        <v>15.392688472975337</v>
+      </c>
+      <c r="J15" s="26">
+        <v>11.231884057971014</v>
+      </c>
+      <c r="K15" s="26">
+        <v>10.857763300760043</v>
+      </c>
+      <c r="L15" s="26">
+        <v>13.852813852813853</v>
+      </c>
+      <c r="M15" s="26">
+        <v>7.3781743308167469</v>
+      </c>
+      <c r="N15" s="26">
+        <v>11.22216377345257</v>
+      </c>
+      <c r="O15" s="26">
+        <v>8.9129674938832579</v>
+      </c>
+      <c r="P15" s="29">
+        <v>13.681138270704123</v>
+      </c>
+      <c r="Q15" s="26">
         <v>10.5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="28">
-        <v>17.491993101749202</v>
-      </c>
-      <c r="E7" s="28">
-        <v>13.82849531868218</v>
-      </c>
-      <c r="F7" s="28">
-        <v>13.109231388919405</v>
-      </c>
-      <c r="G7" s="28">
-        <v>11.416709911779968</v>
-      </c>
-      <c r="H7" s="28">
-        <v>11.646040014599025</v>
-      </c>
-      <c r="I7" s="28">
-        <v>11.539978958442925</v>
-      </c>
-      <c r="J7" s="28">
-        <v>13.183481098183975</v>
-      </c>
-      <c r="K7" s="28">
-        <v>14.415325767394808</v>
-      </c>
-      <c r="L7" s="28">
-        <v>12.659814489847079</v>
-      </c>
-      <c r="M7" s="28">
-        <v>11.493097440021446</v>
-      </c>
-      <c r="N7" s="29">
-        <v>9.9185738699192445</v>
-      </c>
-      <c r="O7" s="33">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="P7" s="36">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="28">
-        <v>17.433751743375176</v>
-      </c>
-      <c r="E8" s="28">
-        <v>18.441460185360317</v>
-      </c>
-      <c r="F8" s="28">
-        <v>16.389013957676724</v>
-      </c>
-      <c r="G8" s="28">
-        <v>15.933098591549296</v>
-      </c>
-      <c r="H8" s="28">
-        <v>16.267429388630678</v>
-      </c>
-      <c r="I8" s="28">
-        <v>14.752650176678445</v>
-      </c>
-      <c r="J8" s="28">
-        <v>11.26105165193113</v>
-      </c>
-      <c r="K8" s="28">
-        <v>9.3061826223164097</v>
-      </c>
-      <c r="L8" s="28">
-        <v>12.182109194380224</v>
-      </c>
-      <c r="M8" s="28">
-        <v>8.4201388888888893</v>
-      </c>
-      <c r="N8" s="29">
-        <v>9.4235033259423506</v>
-      </c>
-      <c r="O8" s="33">
-        <v>8.5</v>
-      </c>
-      <c r="P8" s="36">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26">
+        <v>12.387791741472173</v>
+      </c>
+      <c r="H16" s="26">
+        <v>12.848353239232718</v>
+      </c>
+      <c r="I16" s="26">
+        <v>14.099589505621989</v>
+      </c>
+      <c r="J16" s="26">
+        <v>11.291866028708133</v>
+      </c>
+      <c r="K16" s="26">
+        <v>7.6966397597146612</v>
+      </c>
+      <c r="L16" s="26">
+        <v>10.418570645220253</v>
+      </c>
+      <c r="M16" s="26">
+        <v>9.4869992972593113</v>
+      </c>
+      <c r="N16" s="26">
+        <v>7.4204256981058387</v>
+      </c>
+      <c r="O16" s="26">
+        <v>7.9710144927536231</v>
+      </c>
+      <c r="P16" s="26">
+        <v>9.4581280788177331</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B17" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D17" s="26">
         <v>17.912772585669781</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E17" s="26">
         <v>16.943930991990143</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F17" s="26">
         <v>14.464366430616241</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G17" s="26">
         <v>12.251148545176111</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H17" s="26">
         <v>10.273497153963627</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I17" s="26">
         <v>12.369974697779028</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J17" s="26">
         <v>11.584129742253113</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K17" s="26">
         <v>12.209828157974075</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L17" s="26">
         <v>8.720930232558139</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M17" s="26">
         <v>11.227763196267134</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N17" s="26">
         <v>9.9843993759750393</v>
       </c>
-      <c r="O9" s="33">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="P9" s="36">
-        <v>6.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="O17" s="26">
+        <v>8.1546360616128055</v>
+      </c>
+      <c r="P17" s="26">
+        <v>6.6291017567119654</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26">
+        <v>12.803050939798419</v>
+      </c>
+      <c r="H18" s="26">
+        <v>12.983500135244793</v>
+      </c>
+      <c r="I18" s="26">
+        <v>13.358778625954198</v>
+      </c>
+      <c r="J18" s="26">
+        <v>12.704686617730095</v>
+      </c>
+      <c r="K18" s="26">
+        <v>12.242460435951031</v>
+      </c>
+      <c r="L18" s="26">
+        <v>11.589895988112927</v>
+      </c>
+      <c r="M18" s="26">
+        <v>11.428571428571429</v>
+      </c>
+      <c r="N18" s="26">
+        <v>12.080942313500454</v>
+      </c>
+      <c r="O18" s="26">
+        <v>8.3160083160083165</v>
+      </c>
+      <c r="P18" s="26">
+        <v>7.5459317585301839</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26">
+        <v>11.674259681093394</v>
+      </c>
+      <c r="H19" s="26">
+        <v>7.4158585282373073</v>
+      </c>
+      <c r="I19" s="26">
+        <v>11.317469529889728</v>
+      </c>
+      <c r="J19" s="26">
+        <v>10.404280618311534</v>
+      </c>
+      <c r="K19" s="26">
+        <v>12.176560121765601</v>
+      </c>
+      <c r="L19" s="26">
+        <v>5.6764427625354781</v>
+      </c>
+      <c r="M19" s="26">
+        <v>11.018463371054199</v>
+      </c>
+      <c r="N19" s="26">
+        <v>7.7444336882865441</v>
+      </c>
+      <c r="O19" s="26">
+        <v>7.9877112135176649</v>
+      </c>
+      <c r="P19" s="26">
+        <v>5.6932350971198922</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D20" s="26">
         <v>12.608002373271036</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E20" s="26">
         <v>13.417951042611062</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F20" s="26">
         <v>10.630954024575452</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G20" s="26">
         <v>10.695523608795495</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H20" s="26">
         <v>8.2142857142857135</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I20" s="26">
         <v>6.4441219158200287</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J20" s="26">
         <v>5.1059702769774935</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K20" s="26">
         <v>5.0451623403043371</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L20" s="26">
         <v>4.3125446565275087</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M20" s="26">
         <v>3.4859593304744778</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N20" s="26">
         <v>3.0982632671044028</v>
       </c>
-      <c r="O10" s="33">
-        <v>3.4</v>
-      </c>
-      <c r="P10" s="36">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="O20" s="26">
+        <v>3.3626990523302669</v>
+      </c>
+      <c r="P20" s="26">
+        <v>2.8324599915026201</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26">
+        <v>12.92517006802721</v>
+      </c>
+      <c r="H21" s="26">
+        <v>9.3290068374087394</v>
+      </c>
+      <c r="I21" s="26">
+        <v>7.0335358991672292</v>
+      </c>
+      <c r="J21" s="26">
+        <v>5.5116356753145528</v>
+      </c>
+      <c r="K21" s="26">
+        <v>5.4454136928363726</v>
+      </c>
+      <c r="L21" s="26">
+        <v>5.1058717525153927</v>
+      </c>
+      <c r="M21" s="26">
+        <v>3.852739726027397</v>
+      </c>
+      <c r="N21" s="26">
+        <v>3.4500027822603085</v>
+      </c>
+      <c r="O21" s="26">
+        <v>4.0540540540540544</v>
+      </c>
+      <c r="P21" s="26">
+        <v>3.4114669307802354</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26">
+        <v>8.3872206927460144</v>
+      </c>
+      <c r="H22" s="26">
+        <v>7.0370823644596747</v>
+      </c>
+      <c r="I22" s="26">
+        <v>5.8160450893392497</v>
+      </c>
+      <c r="J22" s="26">
+        <v>4.6797309154723603</v>
+      </c>
+      <c r="K22" s="26">
+        <v>4.6234402852049907</v>
+      </c>
+      <c r="L22" s="26">
+        <v>3.4875852376242782</v>
+      </c>
+      <c r="M22" s="26">
+        <v>3.0933150025777625</v>
+      </c>
+      <c r="N22" s="26">
+        <v>2.7309703660662406</v>
+      </c>
+      <c r="O22" s="26">
+        <v>2.6311273808842879</v>
+      </c>
+      <c r="P22" s="26">
+        <v>2.218200922304594</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D23" s="26">
         <v>28.861020443222813</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E23" s="26">
         <v>24.548244118649848</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F23" s="26">
         <v>25.589947900704875</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G23" s="26">
         <v>19.147084421235856</v>
       </c>
-      <c r="H11" s="28">
+      <c r="H23" s="26">
         <v>16.905248807089301</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I23" s="26">
         <v>15.341308937368051</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J23" s="26">
         <v>19.851851851851855</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K23" s="26">
         <v>16.656751933372991</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L23" s="26">
         <v>12.700332627759298</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M23" s="26">
         <v>12.336039975015614</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N23" s="26">
         <v>12.26790450928382</v>
       </c>
-      <c r="O11" s="33">
-        <v>16.7</v>
-      </c>
-      <c r="P11" s="36">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+      <c r="O23" s="26">
+        <v>16.684858880399187</v>
+      </c>
+      <c r="P23" s="26">
+        <v>14.816047944065257</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26">
+        <v>22.151898734177216</v>
+      </c>
+      <c r="H24" s="26">
+        <v>19.295958279009128</v>
+      </c>
+      <c r="I24" s="26">
+        <v>17.127071823204417</v>
+      </c>
+      <c r="J24" s="26">
+        <v>23.941605839416059</v>
+      </c>
+      <c r="K24" s="26">
+        <v>19.312695257029254</v>
+      </c>
+      <c r="L24" s="26">
+        <v>17.266608135791632</v>
+      </c>
+      <c r="M24" s="26">
+        <v>11.342734518700183</v>
+      </c>
+      <c r="N24" s="26">
+        <v>12.442698100851343</v>
+      </c>
+      <c r="O24" s="26">
+        <v>19.476567255021301</v>
+      </c>
+      <c r="P24" s="26">
+        <v>14.964216005204944</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26">
+        <v>16.091281451141018</v>
+      </c>
+      <c r="H25" s="26">
+        <v>14.285714285714285</v>
+      </c>
+      <c r="I25" s="26">
+        <v>13.486370157819225</v>
+      </c>
+      <c r="J25" s="26">
+        <v>15.639097744360903</v>
+      </c>
+      <c r="K25" s="26">
+        <v>13.737121448641897</v>
+      </c>
+      <c r="L25" s="26">
+        <v>7.8198310916484211</v>
+      </c>
+      <c r="M25" s="26">
+        <v>13.367281985996181</v>
+      </c>
+      <c r="N25" s="26">
+        <v>12.08865010073875</v>
+      </c>
+      <c r="O25" s="26">
+        <v>13.751199232491205</v>
+      </c>
+      <c r="P25" s="26">
+        <v>14.660756904193658</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B26" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D26" s="26">
         <v>21.918468115854761</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E26" s="26">
         <v>19.965576592082616</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F26" s="26">
         <v>18.539076376554174</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G26" s="26">
         <v>16.072399980218584</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H26" s="26">
         <v>15.374759769378604</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I26" s="26">
         <v>14.294877668835333</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J26" s="26">
         <v>14.537283316518389</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K26" s="26">
         <v>13.354037267080745</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L26" s="26">
         <v>12.614627600089467</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M26" s="26">
         <v>10.40759449573245</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N26" s="26">
         <v>6.6553449304631203</v>
       </c>
-      <c r="O12" s="33">
-        <v>6.8</v>
-      </c>
-      <c r="P12" s="36">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="O26" s="26">
+        <v>6.8021734755484005</v>
+      </c>
+      <c r="P26" s="26">
+        <v>7.5963764877929885</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26">
+        <v>18.399616674652613</v>
+      </c>
+      <c r="H27" s="26">
+        <v>14.611960518676215</v>
+      </c>
+      <c r="I27" s="26">
+        <v>16.048502139800284</v>
+      </c>
+      <c r="J27" s="26">
+        <v>16.233478222301073</v>
+      </c>
+      <c r="K27" s="26">
+        <v>13.94180810529962</v>
+      </c>
+      <c r="L27" s="26">
+        <v>14.593527341402696</v>
+      </c>
+      <c r="M27" s="26">
+        <v>11.048784633690294</v>
+      </c>
+      <c r="N27" s="26">
+        <v>6.8057669920300885</v>
+      </c>
+      <c r="O27" s="26">
+        <v>7.498618675507144</v>
+      </c>
+      <c r="P27" s="26">
+        <v>8.2226438962681847</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26">
+        <v>13.590844062947067</v>
+      </c>
+      <c r="H28" s="26">
+        <v>16.166281755196305</v>
+      </c>
+      <c r="I28" s="26">
+        <v>12.441093308199811</v>
+      </c>
+      <c r="J28" s="26">
+        <v>12.721921579796829</v>
+      </c>
+      <c r="K28" s="26">
+        <v>12.736535662299854</v>
+      </c>
+      <c r="L28" s="26">
+        <v>10.461423500840649</v>
+      </c>
+      <c r="M28" s="26">
+        <v>9.7338810501875326</v>
+      </c>
+      <c r="N28" s="26">
+        <v>6.4971751412429377</v>
+      </c>
+      <c r="O28" s="26">
+        <v>6.0775295663600524</v>
+      </c>
+      <c r="P28" s="26">
+        <v>6.9345810009190405</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B29" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D29" s="26">
         <v>31.519613482112046</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E29" s="26">
         <v>29.874559859154928</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F29" s="26">
         <v>27.261588727792528</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G29" s="26">
         <v>25.128553410303677</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H29" s="26">
         <v>24.125336409073434</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I29" s="26">
         <v>21.386530080424137</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J29" s="26">
         <v>22.85490400940316</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K29" s="26">
         <v>25.985736535781623</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L29" s="26">
         <v>23.028611304954641</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M29" s="26">
         <v>22.846557579499844</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N29" s="26">
         <v>23.162225004471473</v>
       </c>
-      <c r="O13" s="33">
-        <v>22.9</v>
-      </c>
-      <c r="P13" s="36">
-        <v>19.899999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
+      <c r="O29" s="26">
+        <v>22.937930537021675</v>
+      </c>
+      <c r="P29" s="26">
+        <v>19.881856540084385</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26">
+        <v>25.65795679652863</v>
+      </c>
+      <c r="H30" s="26">
+        <v>25.966747618158045</v>
+      </c>
+      <c r="I30" s="26">
+        <v>22.187281621243887</v>
+      </c>
+      <c r="J30" s="26">
+        <v>26.051421760599354</v>
+      </c>
+      <c r="K30" s="26">
+        <v>27.5571791613723</v>
+      </c>
+      <c r="L30" s="26">
+        <v>24.59901936341727</v>
+      </c>
+      <c r="M30" s="26">
+        <v>25.325119780971935</v>
+      </c>
+      <c r="N30" s="26">
+        <v>25.97516179814588</v>
+      </c>
+      <c r="O30" s="26">
+        <v>25.00174593197849</v>
+      </c>
+      <c r="P30" s="26">
+        <v>21.589793915603533</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26">
+        <v>24.568061520023971</v>
+      </c>
+      <c r="H31" s="26">
+        <v>22.173826964957435</v>
+      </c>
+      <c r="I31" s="26">
+        <v>20.538440188731613</v>
+      </c>
+      <c r="J31" s="26">
+        <v>19.510022271714924</v>
+      </c>
+      <c r="K31" s="26">
+        <v>24.309673047602914</v>
+      </c>
+      <c r="L31" s="26">
+        <v>21.294171638366223</v>
+      </c>
+      <c r="M31" s="26">
+        <v>20.209376422394172</v>
+      </c>
+      <c r="N31" s="26">
+        <v>20.2195791399817</v>
+      </c>
+      <c r="O31" s="26">
+        <v>20.733890214797135</v>
+      </c>
+      <c r="P31" s="26">
+        <v>18.061366806136682</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D32" s="26">
         <v>49.506943046890726</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E32" s="26">
         <v>42.992095623674572</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F32" s="26">
         <v>49.784765113232268</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G32" s="26">
         <v>42.065009560229448</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H32" s="26">
         <v>46.632124352331608</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I32" s="26">
         <v>53.846153846153847</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J32" s="26">
         <v>55.639097744360903</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K32" s="26">
         <v>63.961300725611387</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L32" s="26">
         <v>61.96377502383222</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M32" s="26">
         <v>50.222162380503569</v>
       </c>
-      <c r="N14" s="31">
+      <c r="N32" s="26">
         <v>46.86485784759185</v>
       </c>
-      <c r="O14" s="37">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="P14" s="38">
-        <v>33</v>
+      <c r="O32" s="26">
+        <v>34.244292617897017</v>
+      </c>
+      <c r="P32" s="26">
+        <v>32.995296884185777</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26">
+        <v>46.169287387085987</v>
+      </c>
+      <c r="H33" s="26">
+        <v>50.086355785837654</v>
+      </c>
+      <c r="I33" s="26">
+        <v>61.253972840219589</v>
+      </c>
+      <c r="J33" s="26">
+        <v>64.835787089467715</v>
+      </c>
+      <c r="K33" s="26">
+        <v>67.427385892116178</v>
+      </c>
+      <c r="L33" s="26">
+        <v>62.759336099585063</v>
+      </c>
+      <c r="M33" s="26">
+        <v>55.052985267510984</v>
+      </c>
+      <c r="N33" s="26">
+        <v>53.086419753086425</v>
+      </c>
+      <c r="O33" s="26">
+        <v>38.695235049568275</v>
+      </c>
+      <c r="P33" s="26">
+        <v>37.349742415569551</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27">
+        <v>37.626628075253258</v>
+      </c>
+      <c r="H34" s="27">
+        <v>42.931162102146558</v>
+      </c>
+      <c r="I34" s="27">
+        <v>45.755758914484062</v>
+      </c>
+      <c r="J34" s="27">
+        <v>45.221295702373311</v>
+      </c>
+      <c r="K34" s="27">
+        <v>60.234244283324038</v>
+      </c>
+      <c r="L34" s="27">
+        <v>61.084026383710921</v>
+      </c>
+      <c r="M34" s="27">
+        <v>44.969083754918493</v>
+      </c>
+      <c r="N34" s="27">
+        <v>39.967150287434983</v>
+      </c>
+      <c r="O34" s="27">
+        <v>29.40153096729297</v>
+      </c>
+      <c r="P34" s="27">
+        <v>28.398791540785499</v>
+      </c>
+      <c r="Q34" s="27">
+        <v>30.2</v>
       </c>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.2.2.xlsx
+++ b/untranslated/downloads/data-excel/3.2.2.xlsx
@@ -708,9 +708,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -719,7 +721,7 @@
     <col min="4" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -742,7 +744,7 @@
       <c r="N1" s="15"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -764,7 +766,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -780,7 +782,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -832,8 +834,11 @@
       <c r="Q4" s="24">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -885,8 +890,11 @@
       <c r="Q5" s="25">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="25">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -932,8 +940,11 @@
       <c r="Q6" s="25">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="25">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -979,8 +990,11 @@
       <c r="Q7" s="25">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="25">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -1032,8 +1046,11 @@
       <c r="Q8" s="26">
         <v>11.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1079,8 +1096,11 @@
       <c r="Q9" s="26">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="Q10" s="26">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1179,8 +1202,11 @@
       <c r="Q11" s="26">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="26">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1226,8 +1252,11 @@
       <c r="Q12" s="26">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="26">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1273,8 +1302,11 @@
       <c r="Q13" s="26">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -1326,8 +1358,11 @@
       <c r="Q14" s="26">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="26">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1373,8 +1408,11 @@
       <c r="Q15" s="26">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="26">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1420,8 +1458,11 @@
       <c r="Q16" s="26">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="26">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1473,8 +1514,11 @@
       <c r="Q17" s="26">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="26">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1520,8 +1564,11 @@
       <c r="Q18" s="26">
         <v>10.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="26">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1567,8 +1614,11 @@
       <c r="Q19" s="26">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="26">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1620,8 +1670,11 @@
       <c r="Q20" s="26">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="26">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1667,8 +1720,11 @@
       <c r="Q21" s="26">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="26">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1714,8 +1770,11 @@
       <c r="Q22" s="26">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="26">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -1767,8 +1826,11 @@
       <c r="Q23" s="26">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1814,8 +1876,11 @@
       <c r="Q24" s="26">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="26">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -1861,8 +1926,11 @@
       <c r="Q25" s="26">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="26">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1914,8 +1982,11 @@
       <c r="Q26" s="26">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="26">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -1961,8 +2032,11 @@
       <c r="Q27" s="26">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="26">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2008,8 +2082,11 @@
       <c r="Q28" s="26">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="26">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -2061,8 +2138,11 @@
       <c r="Q29" s="26">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R29" s="26">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2108,8 +2188,11 @@
       <c r="Q30" s="26">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" s="26">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2155,8 +2238,11 @@
       <c r="Q31" s="26">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R31" s="26">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -2208,8 +2294,11 @@
       <c r="Q32" s="26">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="26">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2255,8 +2344,11 @@
       <c r="Q33" s="26">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R33" s="26">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2302,6 +2394,9 @@
       <c r="Q34" s="27">
         <v>30.2</v>
       </c>
+      <c r="R34" s="27">
+        <v>22.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/untranslated/downloads/data-excel/3.2.2.xlsx
+++ b/untranslated/downloads/data-excel/3.2.2.xlsx
@@ -708,11 +708,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R34"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -721,7 +719,7 @@
     <col min="4" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -744,7 +742,7 @@
       <c r="N1" s="15"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -766,7 +764,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -782,7 +780,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -837,8 +835,11 @@
       <c r="R4" s="24">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="24">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -893,8 +894,11 @@
       <c r="R5" s="25">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="25">
+        <v>10.071559327675153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>39</v>
       </c>
@@ -943,8 +947,11 @@
       <c r="R6" s="25">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="25">
+        <v>10.551906067345987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>42</v>
       </c>
@@ -993,8 +1000,11 @@
       <c r="R7" s="25">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="25">
+        <v>9.5619606820956751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
@@ -1049,8 +1059,11 @@
       <c r="R8" s="26">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="26">
+        <v>8.2747510251903922</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1099,8 +1112,11 @@
       <c r="R9" s="26">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9" s="26">
+        <v>7.6325088339222615</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1149,8 +1165,11 @@
       <c r="R10" s="26">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10" s="26">
+        <v>8.9652028567087072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1205,8 +1224,11 @@
       <c r="R11" s="26">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11" s="26">
+        <v>8.5830821067565175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1255,8 +1277,11 @@
       <c r="R12" s="26">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="26">
+        <v>10.275380189066995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1305,8 +1330,11 @@
       <c r="R13" s="26">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13" s="26">
+        <v>6.7661984261234096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>17</v>
       </c>
@@ -1361,8 +1389,11 @@
       <c r="R14" s="26">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14" s="26">
+        <v>9.0818473806623103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1411,8 +1442,11 @@
       <c r="R15" s="26">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15" s="26">
+        <v>9.0186815546489161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1461,8 +1495,11 @@
       <c r="R16" s="26">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16" s="26">
+        <v>9.149130832570906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>18</v>
       </c>
@@ -1517,8 +1554,11 @@
       <c r="R17" s="26">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17" s="26">
+        <v>8.0270384452893957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1567,8 +1607,11 @@
       <c r="R18" s="26">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S18" s="26">
+        <v>8.8235294117647065</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1617,8 +1660,11 @@
       <c r="R19" s="26">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S19" s="26">
+        <v>7.2217502124044177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
@@ -1673,8 +1719,11 @@
       <c r="R20" s="26">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S20" s="26">
+        <v>3.4213262670647033</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1723,8 +1772,11 @@
       <c r="R21" s="26">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S21" s="26">
+        <v>3.4802022457154114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1773,8 +1825,11 @@
       <c r="R22" s="26">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S22" s="26">
+        <v>3.3598464070213931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
@@ -1829,8 +1884,11 @@
       <c r="R23" s="26">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S23" s="26">
+        <v>12.808072967203572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="R24" s="26">
         <v>17.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S24" s="26">
+        <v>14.988470407378941</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -1929,8 +1990,11 @@
       <c r="R25" s="26">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S25" s="26">
+        <v>10.584084672677381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
@@ -1985,8 +2049,11 @@
       <c r="R26" s="26">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S26" s="26">
+        <v>7.1442946266854497</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2035,8 +2102,11 @@
       <c r="R27" s="26">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S27" s="26">
+        <v>7.5305623471882646</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2085,8 +2155,11 @@
       <c r="R28" s="26">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S28" s="26">
+        <v>6.7350533623458704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -2141,8 +2214,11 @@
       <c r="R29" s="26">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S29" s="26">
+        <v>16.241806263656226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2191,8 +2267,11 @@
       <c r="R30" s="26">
         <v>17.600000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S30" s="26">
+        <v>15.614010409340272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2241,8 +2320,11 @@
       <c r="R31" s="26">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S31" s="26">
+        <v>16.915873735085334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>28</v>
       </c>
@@ -2297,8 +2379,11 @@
       <c r="R32" s="26">
         <v>27.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S32" s="26">
+        <v>22.910065805508165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2347,8 +2432,11 @@
       <c r="R33" s="26">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S33" s="26">
+        <v>24.889729048519218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2397,6 +2485,9 @@
       <c r="R34" s="27">
         <v>22.8</v>
       </c>
+      <c r="S34" s="27">
+        <v>20.801878879382652</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/untranslated/downloads/data-excel/3.2.2.xlsx
+++ b/untranslated/downloads/data-excel/3.2.2.xlsx
@@ -158,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +246,14 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,7 +311,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -396,6 +404,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -708,7 +724,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,7 +735,7 @@
     <col min="4" max="17" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="16" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
@@ -742,7 +758,7 @@
       <c r="N1" s="15"/>
       <c r="Q1"/>
     </row>
-    <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
@@ -764,7 +780,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -780,7 +796,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -838,8 +854,11 @@
       <c r="S4" s="24">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -897,173 +916,197 @@
       <c r="S5" s="25">
         <v>10.071559327675153</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="T5" s="25">
+        <v>10.734567774375416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25">
+      <c r="D6" s="26">
+        <v>22.790763743114631</v>
+      </c>
+      <c r="E6" s="26">
+        <v>22.288148486231552</v>
+      </c>
+      <c r="F6" s="26">
+        <v>19.921802271457832</v>
+      </c>
+      <c r="G6" s="26">
         <v>18.289259071098158</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>16.768074212082915</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="26">
         <v>16.123559498824978</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="26">
         <v>16.540713677994095</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="26">
         <v>16.894648428125748</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="26">
         <v>15.428233904311874</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="26">
         <v>13.418192114042323</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="26">
         <v>13.094077272784833</v>
       </c>
-      <c r="O6" s="25">
+      <c r="O6" s="26">
         <v>13.215508319401323</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="26">
         <v>12.876696896299217</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="26">
         <v>12.5</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="26">
         <v>13.1</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="26">
         <v>10.551906067345987</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="T6" s="26">
+        <v>11.465104173618249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25">
+      <c r="D7" s="26">
+        <v>19.234622320176317</v>
+      </c>
+      <c r="E7" s="26">
+        <v>16.801402551865198</v>
+      </c>
+      <c r="F7" s="26">
+        <v>16.247658783938117</v>
+      </c>
+      <c r="G7" s="26">
         <v>14.412898703119524</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>13.848666602616012</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="26">
         <v>13.046652067157742</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="26">
         <v>13.148843854172178</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="26">
         <v>14.310654620060403</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="26">
         <v>12.46161264942514</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="26">
         <v>11.881394048903505</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="26">
         <v>10.421550373059354</v>
       </c>
-      <c r="O7" s="25">
+      <c r="O7" s="26">
         <v>10.694287568191104</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="26">
         <v>10.6587660383149</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="26">
         <v>11</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="26">
         <v>10.6</v>
       </c>
-      <c r="S7" s="25">
+      <c r="S7" s="26">
         <v>9.5619606820956751</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="T7" s="26">
+        <v>9.9642525403214446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>20.020581906632987</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <v>20.371251784864352</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <v>17.75295882647108</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>17.905102954341988</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="25">
         <v>15.91196371477433</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>13.333333333333334</v>
       </c>
-      <c r="J8" s="26">
+      <c r="J8" s="25">
         <v>13.292290471526513</v>
       </c>
-      <c r="K8" s="26">
+      <c r="K8" s="25">
         <v>12.498301861160169</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="25">
         <v>11.21983039791259</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="25">
         <v>10.610820244328098</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>10.611457405758385</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="25">
         <v>9.3401424539712394</v>
       </c>
-      <c r="P8" s="26">
+      <c r="P8" s="25">
         <v>10.465116279069766</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
         <v>11.1</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <v>11</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="25">
         <v>8.2747510251903922</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="25">
+        <v>8.0365048014710894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>39</v>
       </c>
@@ -1073,9 +1116,15 @@
       <c r="C9" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="26">
+        <v>22.68262189676728</v>
+      </c>
+      <c r="E9" s="26">
+        <v>23.757707653246282</v>
+      </c>
+      <c r="F9" s="26">
+        <v>19.408054342552159</v>
+      </c>
       <c r="G9" s="26">
         <v>19.501466275659823</v>
       </c>
@@ -1115,8 +1164,11 @@
       <c r="S9" s="26">
         <v>7.6325088339222615</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9" s="26">
+        <v>7.3384877473463499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>42</v>
       </c>
@@ -1126,9 +1178,15 @@
       <c r="C10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="D10" s="26">
+        <v>17.092337917485263</v>
+      </c>
+      <c r="E10" s="26">
+        <v>16.629933880985774</v>
+      </c>
+      <c r="F10" s="26">
+        <v>15.99312123817713</v>
+      </c>
       <c r="G10" s="26">
         <v>16.251518833535844</v>
       </c>
@@ -1168,67 +1226,73 @@
       <c r="S10" s="26">
         <v>8.9652028567087072</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="T10" s="26">
+        <v>8.7918321043675558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="25">
         <v>17.491993101749202</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="25">
         <v>13.82849531868218</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="25">
         <v>13.109231388919405</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>11.416709911779968</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>11.646040014599025</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>11.539978958442925</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>13.183481098183975</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>14.415325767394808</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>12.659814489847079</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="25">
         <v>11.493097440021446</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <v>9.9185738699192445</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="25">
         <v>10.180383673209684</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="25">
         <v>9.5190846795448198</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="25">
         <v>8.6999999999999993</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="25">
         <v>10.199999999999999</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="25">
         <v>8.5830821067565175</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="25">
+        <v>6.8097801413840067</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>39</v>
       </c>
@@ -1238,9 +1302,15 @@
       <c r="C12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="D12" s="26">
+        <v>19.421323820848194</v>
+      </c>
+      <c r="E12" s="26">
+        <v>15.741380634262457</v>
+      </c>
+      <c r="F12" s="26">
+        <v>14.475185396463205</v>
+      </c>
       <c r="G12" s="26">
         <v>12.663343661592348</v>
       </c>
@@ -1280,8 +1350,11 @@
       <c r="S12" s="26">
         <v>10.275380189066995</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="26">
+        <v>7.8495916946255617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
@@ -1291,9 +1364,15 @@
       <c r="C13" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="26">
+        <v>15.418689837294488</v>
+      </c>
+      <c r="E13" s="26">
+        <v>11.836212412028152</v>
+      </c>
+      <c r="F13" s="26">
+        <v>11.667293940534437</v>
+      </c>
       <c r="G13" s="26">
         <v>10.10029162813856</v>
       </c>
@@ -1333,67 +1412,73 @@
       <c r="S13" s="26">
         <v>6.7661984261234096</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="T13" s="26">
+        <v>5.7177049398311288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>17.433751743375176</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="25">
         <v>18.441460185360317</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <v>16.389013957676724</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="25">
         <v>15.933098591549296</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>16.267429388630678</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="25">
         <v>14.752650176678445</v>
       </c>
-      <c r="J14" s="26">
+      <c r="J14" s="25">
         <v>11.26105165193113</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="25">
         <v>9.3061826223164097</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="25">
         <v>12.182109194380224</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="25">
         <v>8.4201388888888893</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <v>9.4235033259423506</v>
       </c>
-      <c r="O14" s="26">
+      <c r="O14" s="25">
         <v>8.4504536559331083</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <v>11.651037226484798</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
         <v>9.6999999999999993</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="25">
         <v>19.399999999999999</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="25">
         <v>9.0818473806623103</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="25">
+        <v>5.5726364335126828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -1403,9 +1488,15 @@
       <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="D15" s="26">
+        <v>21.032132424537487</v>
+      </c>
+      <c r="E15" s="26">
+        <v>22.853957636566332</v>
+      </c>
+      <c r="F15" s="26">
+        <v>14.873746108612936</v>
+      </c>
       <c r="G15" s="26">
         <v>19.34369602763385</v>
       </c>
@@ -1445,8 +1536,11 @@
       <c r="S15" s="26">
         <v>9.0186815546489161</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="26">
+        <v>5.8888479941111518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>42</v>
       </c>
@@ -1456,9 +1550,15 @@
       <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="D16" s="26">
+        <v>13.665102998164389</v>
+      </c>
+      <c r="E16" s="26">
+        <v>13.86748844375963</v>
+      </c>
+      <c r="F16" s="26">
+        <v>18.034942701484127</v>
+      </c>
       <c r="G16" s="26">
         <v>12.387791741472173</v>
       </c>
@@ -1498,67 +1598,73 @@
       <c r="S16" s="26">
         <v>9.149130832570906</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="T16" s="26">
+        <v>5.2271813429835143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>17.912772585669781</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>16.943930991990143</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="25">
         <v>14.464366430616241</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>12.251148545176111</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>10.273497153963627</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="25">
         <v>12.369974697779028</v>
       </c>
-      <c r="J17" s="26">
+      <c r="J17" s="25">
         <v>11.584129742253113</v>
       </c>
-      <c r="K17" s="26">
+      <c r="K17" s="25">
         <v>12.209828157974075</v>
       </c>
-      <c r="L17" s="26">
+      <c r="L17" s="25">
         <v>8.720930232558139</v>
       </c>
-      <c r="M17" s="26">
+      <c r="M17" s="25">
         <v>11.227763196267134</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>9.9843993759750393</v>
       </c>
-      <c r="O17" s="26">
+      <c r="O17" s="25">
         <v>8.1546360616128055</v>
       </c>
-      <c r="P17" s="26">
+      <c r="P17" s="25">
         <v>6.6291017567119654</v>
       </c>
-      <c r="Q17" s="26">
+      <c r="Q17" s="25">
         <v>9.6</v>
       </c>
-      <c r="R17" s="26">
+      <c r="R17" s="25">
         <v>9.4</v>
       </c>
-      <c r="S17" s="26">
+      <c r="S17" s="25">
         <v>8.0270384452893957</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="25">
+        <v>4.9464138499587795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>39</v>
       </c>
@@ -1568,9 +1674,15 @@
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="D18" s="26">
+        <v>19.708914493632506</v>
+      </c>
+      <c r="E18" s="26">
+        <v>17.851739788199698</v>
+      </c>
+      <c r="F18" s="26">
+        <v>17.657445556209534</v>
+      </c>
       <c r="G18" s="26">
         <v>12.803050939798419</v>
       </c>
@@ -1610,8 +1722,11 @@
       <c r="S18" s="26">
         <v>8.8235294117647065</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="26">
+        <v>5.8886509635974305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
@@ -1621,9 +1736,15 @@
       <c r="C19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="D19" s="26">
+        <v>16.015374759769379</v>
+      </c>
+      <c r="E19" s="26">
+        <v>16.002510197678067</v>
+      </c>
+      <c r="F19" s="26">
+        <v>11.114541525162087</v>
+      </c>
       <c r="G19" s="26">
         <v>11.674259681093394</v>
       </c>
@@ -1663,67 +1784,73 @@
       <c r="S19" s="26">
         <v>7.2217502124044177</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="T19" s="26">
+        <v>3.9525691699604741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="25">
         <v>12.608002373271036</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="25">
         <v>13.417951042611062</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>10.630954024575452</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="25">
         <v>10.695523608795495</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>8.2142857142857135</v>
       </c>
-      <c r="I20" s="26">
+      <c r="I20" s="25">
         <v>6.4441219158200287</v>
       </c>
-      <c r="J20" s="26">
+      <c r="J20" s="25">
         <v>5.1059702769774935</v>
       </c>
-      <c r="K20" s="26">
+      <c r="K20" s="25">
         <v>5.0451623403043371</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="25">
         <v>4.3125446565275087</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="25">
         <v>3.4859593304744778</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="25">
         <v>3.0982632671044028</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="25">
         <v>3.3626990523302669</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="25">
         <v>2.8324599915026201</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="25">
         <v>3.9</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="25">
         <v>3.1</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="25">
         <v>3.4213262670647033</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="25">
+        <v>1.7935943060498221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -1733,9 +1860,15 @@
       <c r="C21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="D21" s="26">
+        <v>12.992637505413599</v>
+      </c>
+      <c r="E21" s="26">
+        <v>14.691547138281576</v>
+      </c>
+      <c r="F21" s="26">
+        <v>12.544204977647295</v>
+      </c>
       <c r="G21" s="26">
         <v>12.92517006802721</v>
       </c>
@@ -1775,8 +1908,11 @@
       <c r="S21" s="26">
         <v>3.4802022457154114</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="26">
+        <v>2.2260559853080308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
@@ -1786,9 +1922,15 @@
       <c r="C22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="D22" s="26">
+        <v>12.201631968275757</v>
+      </c>
+      <c r="E22" s="26">
+        <v>12.033603269507305</v>
+      </c>
+      <c r="F22" s="26">
+        <v>8.5806220951018943</v>
+      </c>
       <c r="G22" s="26">
         <v>8.3872206927460144</v>
       </c>
@@ -1828,67 +1970,73 @@
       <c r="S22" s="26">
         <v>3.3598464070213931</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="T22" s="26">
+        <v>1.3406388435532757</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <v>28.861020443222813</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>24.548244118649848</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <v>25.589947900704875</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>19.147084421235856</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>16.905248807089301</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="25">
         <v>15.341308937368051</v>
       </c>
-      <c r="J23" s="26">
+      <c r="J23" s="25">
         <v>19.851851851851855</v>
       </c>
-      <c r="K23" s="26">
+      <c r="K23" s="25">
         <v>16.656751933372991</v>
       </c>
-      <c r="L23" s="26">
+      <c r="L23" s="25">
         <v>12.700332627759298</v>
       </c>
-      <c r="M23" s="26">
+      <c r="M23" s="25">
         <v>12.336039975015614</v>
       </c>
-      <c r="N23" s="26">
+      <c r="N23" s="25">
         <v>12.26790450928382</v>
       </c>
-      <c r="O23" s="26">
+      <c r="O23" s="25">
         <v>16.684858880399187</v>
       </c>
-      <c r="P23" s="26">
+      <c r="P23" s="25">
         <v>14.816047944065257</v>
       </c>
-      <c r="Q23" s="26">
+      <c r="Q23" s="25">
         <v>20.6</v>
       </c>
-      <c r="R23" s="26">
+      <c r="R23" s="25">
         <v>15</v>
       </c>
-      <c r="S23" s="26">
+      <c r="S23" s="25">
         <v>12.808072967203572</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="25">
+        <v>9.113100081366964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1898,9 +2046,15 @@
       <c r="C24" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="D24" s="26">
+        <v>32.937181663837009</v>
+      </c>
+      <c r="E24" s="26">
+        <v>26.245847176079732</v>
+      </c>
+      <c r="F24" s="26">
+        <v>28.698224852071004</v>
+      </c>
       <c r="G24" s="26">
         <v>22.151898734177216</v>
       </c>
@@ -1940,8 +2094,11 @@
       <c r="S24" s="26">
         <v>14.988470407378941</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="26">
+        <v>8.777633289986996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>42</v>
       </c>
@@ -1951,9 +2108,15 @@
       <c r="C25" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="D25" s="26">
+        <v>24.687065368567456</v>
+      </c>
+      <c r="E25" s="26">
+        <v>22.75910364145658</v>
+      </c>
+      <c r="F25" s="26">
+        <v>22.250476795931341</v>
+      </c>
       <c r="G25" s="26">
         <v>16.091281451141018</v>
       </c>
@@ -1993,67 +2156,73 @@
       <c r="S25" s="26">
         <v>10.584084672677381</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="T25" s="26">
+        <v>9.4493320299771923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <v>21.918468115854761</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <v>19.965576592082616</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <v>18.539076376554174</v>
       </c>
-      <c r="G26" s="26">
+      <c r="G26" s="25">
         <v>16.072399980218584</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>15.374759769378604</v>
       </c>
-      <c r="I26" s="26">
+      <c r="I26" s="25">
         <v>14.294877668835333</v>
       </c>
-      <c r="J26" s="26">
+      <c r="J26" s="25">
         <v>14.537283316518389</v>
       </c>
-      <c r="K26" s="26">
+      <c r="K26" s="25">
         <v>13.354037267080745</v>
       </c>
-      <c r="L26" s="26">
+      <c r="L26" s="25">
         <v>12.614627600089467</v>
       </c>
-      <c r="M26" s="26">
+      <c r="M26" s="25">
         <v>10.40759449573245</v>
       </c>
-      <c r="N26" s="26">
+      <c r="N26" s="25">
         <v>6.6553449304631203</v>
       </c>
-      <c r="O26" s="26">
+      <c r="O26" s="25">
         <v>6.8021734755484005</v>
       </c>
-      <c r="P26" s="26">
+      <c r="P26" s="25">
         <v>7.5963764877929885</v>
       </c>
-      <c r="Q26" s="26">
+      <c r="Q26" s="25">
         <v>6.9</v>
       </c>
-      <c r="R26" s="26">
+      <c r="R26" s="25">
         <v>7.9</v>
       </c>
-      <c r="S26" s="26">
+      <c r="S26" s="25">
         <v>7.1442946266854497</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="25">
+        <v>4.753114905399169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>39</v>
       </c>
@@ -2063,9 +2232,15 @@
       <c r="C27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="D27" s="26">
+        <v>23.945800724214461</v>
+      </c>
+      <c r="E27" s="26">
+        <v>24.466540051390908</v>
+      </c>
+      <c r="F27" s="26">
+        <v>20.4257149000215</v>
+      </c>
       <c r="G27" s="26">
         <v>18.399616674652613</v>
       </c>
@@ -2105,8 +2280,11 @@
       <c r="S27" s="26">
         <v>7.5305623471882646</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" s="26">
+        <v>5.1499819298879652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>42</v>
       </c>
@@ -2116,9 +2294,15 @@
       <c r="C28" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
+      <c r="D28" s="26">
+        <v>19.7613721103654</v>
+      </c>
+      <c r="E28" s="26">
+        <v>15.214058261587452</v>
+      </c>
+      <c r="F28" s="26">
+        <v>16.525131971540052</v>
+      </c>
       <c r="G28" s="26">
         <v>13.590844062947067</v>
       </c>
@@ -2158,67 +2342,73 @@
       <c r="S28" s="26">
         <v>6.7350533623458704</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="T28" s="26">
+        <v>4.3388039992454255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="25">
         <v>31.519613482112046</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="25">
         <v>29.874559859154928</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F29" s="25">
         <v>27.261588727792528</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G29" s="25">
         <v>25.128553410303677</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="25">
         <v>24.125336409073434</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="25">
         <v>21.386530080424137</v>
       </c>
-      <c r="J29" s="26">
+      <c r="J29" s="25">
         <v>22.85490400940316</v>
       </c>
-      <c r="K29" s="26">
+      <c r="K29" s="25">
         <v>25.985736535781623</v>
       </c>
-      <c r="L29" s="26">
+      <c r="L29" s="25">
         <v>23.028611304954641</v>
       </c>
-      <c r="M29" s="26">
+      <c r="M29" s="25">
         <v>22.846557579499844</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="25">
         <v>23.162225004471473</v>
       </c>
-      <c r="O29" s="26">
+      <c r="O29" s="25">
         <v>22.937930537021675</v>
       </c>
-      <c r="P29" s="26">
+      <c r="P29" s="25">
         <v>19.881856540084385</v>
       </c>
-      <c r="Q29" s="26">
+      <c r="Q29" s="25">
         <v>19</v>
       </c>
-      <c r="R29" s="26">
+      <c r="R29" s="25">
         <v>15.2</v>
       </c>
-      <c r="S29" s="26">
+      <c r="S29" s="25">
         <v>16.241806263656226</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T29" s="25">
+        <v>40.755007704160249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>39</v>
       </c>
@@ -2228,9 +2418,15 @@
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
+      <c r="D30" s="26">
+        <v>32.360262502828697</v>
+      </c>
+      <c r="E30" s="26">
+        <v>33.077004108290325</v>
+      </c>
+      <c r="F30" s="26">
+        <v>29.476418864908073</v>
+      </c>
       <c r="G30" s="26">
         <v>25.65795679652863</v>
       </c>
@@ -2270,8 +2466,11 @@
       <c r="S30" s="26">
         <v>15.614010409340272</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="26">
+        <v>39.809154614581779</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>42</v>
       </c>
@@ -2281,9 +2480,15 @@
       <c r="C31" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
+      <c r="D31" s="26">
+        <v>30.650444548432382</v>
+      </c>
+      <c r="E31" s="26">
+        <v>26.373373258090524</v>
+      </c>
+      <c r="F31" s="26">
+        <v>24.947807933194152</v>
+      </c>
       <c r="G31" s="26">
         <v>24.568061520023971</v>
       </c>
@@ -2323,67 +2528,73 @@
       <c r="S31" s="26">
         <v>16.915873735085334</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="T31" s="26">
+        <v>41.76630001594134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="25">
         <v>49.506943046890726</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>42.992095623674572</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F32" s="25">
         <v>49.784765113232268</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>42.065009560229448</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="25">
         <v>46.632124352331608</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="25">
         <v>53.846153846153847</v>
       </c>
-      <c r="J32" s="26">
+      <c r="J32" s="25">
         <v>55.639097744360903</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>63.961300725611387</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="25">
         <v>61.96377502383222</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="25">
         <v>50.222162380503569</v>
       </c>
-      <c r="N32" s="26">
+      <c r="N32" s="25">
         <v>46.86485784759185</v>
       </c>
-      <c r="O32" s="26">
+      <c r="O32" s="25">
         <v>34.244292617897017</v>
       </c>
-      <c r="P32" s="26">
+      <c r="P32" s="25">
         <v>32.995296884185777</v>
       </c>
-      <c r="Q32" s="26">
+      <c r="Q32" s="25">
         <v>32.9</v>
       </c>
-      <c r="R32" s="26">
+      <c r="R32" s="25">
         <v>27.9</v>
       </c>
-      <c r="S32" s="26">
+      <c r="S32" s="25">
         <v>22.910065805508165</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32" s="25">
+        <v>57.518248175182478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>39</v>
       </c>
@@ -2393,9 +2604,15 @@
       <c r="C33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="D33" s="26">
+        <v>52.108194112967382</v>
+      </c>
+      <c r="E33" s="26">
+        <v>46.096654275092938</v>
+      </c>
+      <c r="F33" s="26">
+        <v>55.092424791591156</v>
+      </c>
       <c r="G33" s="26">
         <v>46.169287387085987</v>
       </c>
@@ -2435,8 +2652,11 @@
       <c r="S33" s="26">
         <v>24.889729048519218</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T33" s="26">
+        <v>66.761768901569198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>42</v>
       </c>
@@ -2446,9 +2666,15 @@
       <c r="C34" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="D34" s="27">
+        <v>46.843177189409367</v>
+      </c>
+      <c r="E34" s="27">
+        <v>39.647577092511014</v>
+      </c>
+      <c r="F34" s="27">
+        <v>44.117647058823529</v>
+      </c>
       <c r="G34" s="27">
         <v>37.626628075253258</v>
       </c>
@@ -2487,6 +2713,9 @@
       </c>
       <c r="S34" s="27">
         <v>20.801878879382652</v>
+      </c>
+      <c r="T34" s="27">
+        <v>47.832585949177876</v>
       </c>
     </row>
   </sheetData>
